--- a/data/trans_camb/P38B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.435883930629258</v>
+        <v>-3.386707590284123</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.031578900604044</v>
+        <v>-1.753205492833827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.992470462476392</v>
+        <v>-1.973481827312555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.995805822754025</v>
+        <v>1.860707201325653</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.796158701738688</v>
+        <v>-1.558561009081025</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.781567753912236</v>
+        <v>1.951339172454421</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.37477213257763</v>
+        <v>4.643892237517515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.893358614929145</v>
+        <v>7.893709126719767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.975031910308725</v>
+        <v>5.159642859992249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.803647155844411</v>
+        <v>8.6861066110891</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.662424088734477</v>
+        <v>3.778302168282963</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.285014038876966</v>
+        <v>7.58602575298803</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04034821306698362</v>
+        <v>-0.04016390527938277</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0114341729549691</v>
+        <v>-0.01993871876828874</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02244832324693839</v>
+        <v>-0.02231455109744684</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02277862024871301</v>
+        <v>0.02123842366063076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02085601128896838</v>
+        <v>-0.01806777268721066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02022898988943735</v>
+        <v>0.02286666281348125</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.05409378048195588</v>
+        <v>0.05738626413390632</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09754670147293719</v>
+        <v>0.09756765867763983</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05912202493205521</v>
+        <v>0.06121918889713886</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.104917833708201</v>
+        <v>0.1026572829078499</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04414191193449352</v>
+        <v>0.04581664034377476</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08756609269681861</v>
+        <v>0.09157711172307342</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>4.358279821983935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.061825770423675</v>
+        <v>-2.061825770423664</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.600821588051694</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-3.077433042852129</v>
+        <v>-3.07743304285214</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.735563119437766</v>
+        <v>-2.642556136758399</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.132445632808645</v>
+        <v>-8.32909705394685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.644416468849089</v>
+        <v>1.504206183566743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.290234489969656</v>
+        <v>-5.1108708869404</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2127667555896037</v>
+        <v>0.4567666338534925</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.663086231455432</v>
+        <v>-5.810022651574896</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.271411104191569</v>
+        <v>4.3147791018839</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.04124301307405025</v>
+        <v>-0.1619746087705137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.263397146815781</v>
+        <v>7.091953615609293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.328826350956779</v>
+        <v>1.248856026239014</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.849357388765807</v>
+        <v>4.999839704396399</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.5600349903209766</v>
+        <v>-0.3905304007534594</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>0.05043462465749612</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.02385973665939024</v>
+        <v>-0.02385973665939011</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03099821350959774</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.03667876603380658</v>
+        <v>-0.03667876603380671</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03305173411430479</v>
+        <v>-0.03166585631461496</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09754337010343878</v>
+        <v>-0.100209652336877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01859212986848189</v>
+        <v>0.01705792953167813</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0603089364799694</v>
+        <v>-0.05781340198876734</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.002508727093198273</v>
+        <v>0.005511254332340313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06669529966616262</v>
+        <v>-0.0687162731214347</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05381570994695505</v>
+        <v>0.05427611394759072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0005974719448862462</v>
+        <v>-0.002192166368218429</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08602223981673975</v>
+        <v>0.08374829500617945</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01472115081268687</v>
+        <v>0.01481698045822046</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05870081204931052</v>
+        <v>0.06059307540042352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.006638138268544952</v>
+        <v>-0.004818650847827188</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>-2.116477167386144</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.062788623351099</v>
+        <v>-4.062788623351087</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-2.016604255979837</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.390131039319334</v>
+        <v>-4.390131039319323</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.32395504204748</v>
+        <v>-6.032762280022067</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.923444948437767</v>
+        <v>-9.065191393993462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.002958086475749</v>
+        <v>-5.431861440063805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.763907352161099</v>
+        <v>-7.385003128946183</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.576981725529548</v>
+        <v>-4.582685989506895</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.302146415428734</v>
+        <v>-7.371667297859116</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.996123893412375</v>
+        <v>2.25532785344721</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2464913106513515</v>
+        <v>0.06242244847446834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.090663018992719</v>
+        <v>0.9490733682297383</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.9783500717305127</v>
+        <v>-0.5118701135714796</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.527416805223737</v>
+        <v>0.4508914845247468</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.309428669995327</v>
+        <v>-1.632872383381313</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>-0.0234558403789995</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.04502582069459768</v>
+        <v>-0.04502582069459755</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.02324171981979628</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.05059703473573905</v>
+        <v>-0.05059703473573892</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07374563810820302</v>
+        <v>-0.07114788238664004</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1180092399360869</v>
+        <v>-0.1083311758675524</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.05500165559059875</v>
+        <v>-0.05951683815954606</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08435636957159688</v>
+        <v>-0.08062963154957362</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05202032851584195</v>
+        <v>-0.05207829704929868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08314016684629717</v>
+        <v>-0.08404150005819824</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02461732907058452</v>
+        <v>0.02744999346148741</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.00287108399879178</v>
+        <v>-0.0004904094870191371</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.01222403909466737</v>
+        <v>0.01056091718656388</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.01086071627191904</v>
+        <v>-0.00593021113631532</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.006201071550035499</v>
+        <v>0.005272754914406118</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01542010756558863</v>
+        <v>-0.01908314791806961</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>-2.945661502401842</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.222401790737583</v>
+        <v>-2.222401790737594</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.313328168584174</v>
+        <v>-4.049253321604711</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.455338013516407</v>
+        <v>-6.372714139239315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.85749229724947</v>
+        <v>-8.070646060942037</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.403320405252111</v>
+        <v>-5.04581414752243</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.033132281269625</v>
+        <v>-5.136847342757337</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.842695959702871</v>
+        <v>-4.801912222829325</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.787306911169835</v>
+        <v>3.005884724441646</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.684884648670588</v>
+        <v>1.644353077983862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.133947134597497</v>
+        <v>-2.024099061852219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6180409581765559</v>
+        <v>0.6778686611170601</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1767826665135676</v>
+        <v>-0.5171665024986704</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0551670502365053</v>
+        <v>0.2078925617425019</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>-0.03463342911925815</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.02612974872749734</v>
+        <v>-0.02612974872749747</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05170467456293389</v>
+        <v>-0.0482849654441589</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07751468793734102</v>
+        <v>-0.07671306490050243</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08760348719229884</v>
+        <v>-0.09017318780194467</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06018970343931868</v>
+        <v>-0.05629906330111198</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05846110573390333</v>
+        <v>-0.06034361415498442</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05616485766954478</v>
+        <v>-0.0558454587497098</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03467259369994657</v>
+        <v>0.03782373951291007</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02100532464134727</v>
+        <v>0.02044233108522352</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.0242851523913141</v>
+        <v>-0.02258829166841705</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.007067173429731549</v>
+        <v>0.00774214170012988</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.0021234134570005</v>
+        <v>-0.006438910739782192</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.000940183566061979</v>
+        <v>0.002532573544611579</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>-0.3788425781194094</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.088113216645636</v>
+        <v>-1.088113216645659</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.3049295880907299</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.599970686990138</v>
+        <v>-1.599970686990126</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.249079516217912</v>
+        <v>-2.191372095678468</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.369135993383395</v>
+        <v>-4.212338187798579</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.954030160954456</v>
+        <v>-2.012297171736551</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.650113891894207</v>
+        <v>-2.676672783771787</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.405089965378818</v>
+        <v>-1.680806961345379</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.111955856274668</v>
+        <v>-2.857467385937147</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.520282488203124</v>
+        <v>1.751812654605152</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1696324339417973</v>
+        <v>0.03458026640793865</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.100036008289542</v>
+        <v>1.109186448118803</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6247052912811685</v>
+        <v>0.4622465559435642</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.969543016994414</v>
+        <v>0.9005751566887402</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.3486143648482871</v>
+        <v>-0.214895153022741</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>-0.004315520567088463</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.01239505598622271</v>
+        <v>-0.01239505598622296</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.003586746716238485</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01881972045930878</v>
+        <v>-0.01881972045930865</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02709748146504838</v>
+        <v>-0.02645420201190095</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0527159708903282</v>
+        <v>-0.05081193534047024</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02207441554317321</v>
+        <v>-0.02285122623838167</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03012016791257461</v>
+        <v>-0.03019835541331583</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01641700870080642</v>
+        <v>-0.01954297693098398</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03628907976707773</v>
+        <v>-0.0334967184374209</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01861294197759219</v>
+        <v>0.02162060730814564</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.002331490449523767</v>
+        <v>0.0004080641809078982</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01269598266302454</v>
+        <v>0.01267902434467606</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.007136946472816904</v>
+        <v>0.005502466810203127</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01156438562676892</v>
+        <v>0.01071206539202251</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.004114978843518179</v>
+        <v>-0.002585762623549505</v>
       </c>
     </row>
     <row r="34">
